--- a/src/data/songs_2.xlsx
+++ b/src/data/songs_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saman\Desktop\Final Phase\Function-Calling-LLMs\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CD5ABA-183B-4D7B-8938-E752273713A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B370D5-CCAA-4F3B-857B-2D826382273F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8641567-F005-4935-9578-1B85BB2C6D5D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Songs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Songs!$A$1:$Q$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Songs!$A$1:$Q$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="423">
   <si>
     <t>track_name</t>
   </si>
@@ -89,9 +89,6 @@
     <t>speechiness_%</t>
   </si>
   <si>
-    <t>duration_in_min</t>
-  </si>
-  <si>
     <t>Cruel Summer</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Major</t>
   </si>
   <si>
-    <t xml:space="preserve">I Can See You (Taylor���s Version) (From The </t>
-  </si>
-  <si>
     <t>Speak Now (Taylor's Version)</t>
   </si>
   <si>
@@ -173,1141 +167,1147 @@
     <t>2020-07-24</t>
   </si>
   <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Karma</t>
+  </si>
+  <si>
+    <t>404562836</t>
+  </si>
+  <si>
+    <t>G#</t>
+  </si>
+  <si>
+    <t>Enchanted (Taylor's Version)</t>
+  </si>
+  <si>
+    <t>39578178</t>
+  </si>
+  <si>
+    <t>Back To December (Taylor's Version)</t>
+  </si>
+  <si>
+    <t>39228929</t>
+  </si>
+  <si>
+    <t>Mine (Taylor's Version)</t>
+  </si>
+  <si>
+    <t>36912123</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>august</t>
+  </si>
+  <si>
+    <t>607123776</t>
+  </si>
+  <si>
+    <t>Enchanted</t>
+  </si>
+  <si>
+    <t>Speak Now</t>
+  </si>
+  <si>
+    <t>2010-01-01</t>
+  </si>
+  <si>
+    <t>621660989</t>
+  </si>
+  <si>
+    <t>Shake It Off</t>
+  </si>
+  <si>
+    <t>1113838873</t>
+  </si>
+  <si>
+    <t>You Belong With Me (Taylor's Version)</t>
+  </si>
+  <si>
+    <t>Fearless(Taylor's Version)</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>350381515</t>
+  </si>
+  <si>
+    <t>Better Than Revenge (Taylor's Version)</t>
+  </si>
+  <si>
+    <t>30343206</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Hits Different</t>
+  </si>
+  <si>
+    <t>Midnights(Lavender Edition)</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>68616963</t>
+  </si>
+  <si>
+    <t>Lavender Haze</t>
+  </si>
+  <si>
+    <t>488386797</t>
+  </si>
+  <si>
+    <t>A#</t>
+  </si>
+  <si>
+    <t>Midnight Rain</t>
+  </si>
+  <si>
+    <t>433356509</t>
+  </si>
+  <si>
+    <t>You're On Your Own, Kid</t>
+  </si>
+  <si>
+    <t>348647203</t>
+  </si>
+  <si>
+    <t>Maroon</t>
+  </si>
+  <si>
+    <t>317726339</t>
+  </si>
+  <si>
+    <t>Bejeweled</t>
+  </si>
+  <si>
+    <t>328207708</t>
+  </si>
+  <si>
+    <t>All Too Well (10 Minute Version) (Taylor's Version) (From The Vault)</t>
+  </si>
+  <si>
+    <t>Red (Taylor's Version)</t>
+  </si>
+  <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
+    <t>583687007</t>
+  </si>
+  <si>
+    <t>The Joker And The Queen (feat. Taylor Swift)</t>
+  </si>
+  <si>
+    <t>Ed Sheeran, Taylor Swift</t>
+  </si>
+  <si>
+    <t>Single(not album)</t>
+  </si>
+  <si>
+    <t>2022-02-11</t>
+  </si>
+  <si>
+    <t>146789379</t>
+  </si>
+  <si>
+    <t>This Love (Taylor's Version)</t>
+  </si>
+  <si>
+    <t>1989 (Taylor's Version)</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>132171975</t>
+  </si>
+  <si>
+    <t>Vigilante Shit</t>
+  </si>
+  <si>
+    <t>253650850</t>
+  </si>
+  <si>
+    <t>Question...?</t>
+  </si>
+  <si>
+    <t>223064273</t>
+  </si>
+  <si>
+    <t>Mastermind</t>
+  </si>
+  <si>
+    <t>218320587</t>
+  </si>
+  <si>
+    <t>Labyrinth</t>
+  </si>
+  <si>
+    <t>187339835</t>
+  </si>
+  <si>
+    <t>Sweet Nothing</t>
+  </si>
+  <si>
+    <t>186104310</t>
+  </si>
+  <si>
+    <t>Would've, Could've, Should've</t>
+  </si>
+  <si>
+    <t>177503916</t>
+  </si>
+  <si>
+    <t>The Great War</t>
+  </si>
+  <si>
+    <t>181382590</t>
+  </si>
+  <si>
+    <t>Bigger Than The Whole Sky</t>
+  </si>
+  <si>
+    <t>121871870</t>
+  </si>
+  <si>
+    <t>My Only Wish (This Year)</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>2000-11-07</t>
+  </si>
+  <si>
+    <t>261116938</t>
+  </si>
+  <si>
+    <t>Hold Me Closer</t>
+  </si>
+  <si>
+    <t>Elton John, Britney Spears</t>
+  </si>
+  <si>
+    <t>2017-11-10</t>
+  </si>
+  <si>
+    <t>284216603</t>
+  </si>
+  <si>
+    <t>CUFF IT</t>
+  </si>
+  <si>
+    <t>Beyoncé</t>
+  </si>
+  <si>
+    <t>Renaissance</t>
+  </si>
+  <si>
+    <t>2022-07-29</t>
+  </si>
+  <si>
+    <t>595900742</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar, Beyoncé</t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
+  </si>
+  <si>
+    <t>57089066</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>BREAK MY SOUL</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>354614964</t>
+  </si>
+  <si>
+    <t>ALIEN SUPERSTAR</t>
+  </si>
+  <si>
+    <t>171788484</t>
+  </si>
+  <si>
+    <t>Bloody Mary</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Born This Way</t>
+  </si>
+  <si>
+    <t>2011-01-01</t>
+  </si>
+  <si>
+    <t>372476382</t>
+  </si>
+  <si>
+    <t>Shallow</t>
+  </si>
+  <si>
+    <t>Lady Gaga, Bradley Cooper</t>
+  </si>
+  <si>
+    <t>A Star is Born</t>
+  </si>
+  <si>
+    <t>2018-09-27</t>
+  </si>
+  <si>
+    <t>2159346687</t>
+  </si>
+  <si>
+    <t>Hold My Hand</t>
+  </si>
+  <si>
+    <t>Top Gun: Maverick</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>238350348</t>
+  </si>
+  <si>
+    <t>STAY (with Justin Bieber)</t>
+  </si>
+  <si>
+    <t>Justin Bieber, The Kid Laroi</t>
+  </si>
+  <si>
+    <t>F*ck Love 3: Over You</t>
+  </si>
+  <si>
+    <t>2021-07-09</t>
+  </si>
+  <si>
+    <t>2665343922</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>1167330737</t>
+  </si>
+  <si>
+    <t>Private Landing (feat. Justin Bieber &amp; Future)</t>
+  </si>
+  <si>
+    <t>Don Toliver, Future, Justin Bieber</t>
+  </si>
+  <si>
+    <t>Love Sick</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>105062254</t>
+  </si>
+  <si>
+    <t>Mistletoe</t>
+  </si>
+  <si>
+    <t>Under the Mistletoe</t>
+  </si>
+  <si>
+    <t>629173063</t>
+  </si>
+  <si>
+    <t>Peaches (feat. Daniel Caesar &amp; Giveon)</t>
+  </si>
+  <si>
+    <t>Justin Bieber, Daniel Caesar, Giveon</t>
+  </si>
+  <si>
+    <t>1445941661</t>
+  </si>
+  <si>
+    <t>Love Yourself</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>2015-11-09</t>
+  </si>
+  <si>
+    <t>2123309722</t>
+  </si>
+  <si>
+    <t>Honest (feat. Don Toliver)</t>
+  </si>
+  <si>
+    <t>Justin Bieber, Don Toliver</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>106919680</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>÷ (Divide)</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>2559529074</t>
+  </si>
+  <si>
+    <t>Shape of You</t>
+  </si>
+  <si>
+    <t>2017-01-06</t>
+  </si>
+  <si>
+    <t>3562543890</t>
+  </si>
+  <si>
+    <t>Eyes Closed</t>
+  </si>
+  <si>
+    <t>- [Subtract]</t>
+  </si>
+  <si>
+    <t>2023-03-23</t>
+  </si>
+  <si>
+    <t>195576623</t>
+  </si>
+  <si>
+    <t>Curtains</t>
+  </si>
+  <si>
+    <t>2023-05-05</t>
+  </si>
+  <si>
+    <t>39893489</t>
+  </si>
+  <si>
+    <t>Shivers</t>
+  </si>
+  <si>
+    <t>= [Equals]</t>
+  </si>
+  <si>
+    <t>2021-09-09</t>
+  </si>
+  <si>
+    <t>1302184087</t>
+  </si>
+  <si>
+    <t>Bad Habits</t>
+  </si>
+  <si>
+    <t>2020-09-03</t>
+  </si>
+  <si>
+    <t>1555511105</t>
+  </si>
+  <si>
+    <t>Merry Christmas</t>
+  </si>
+  <si>
+    <t>Ed Sheeran, Elton John</t>
+  </si>
+  <si>
+    <t>The Lockdown Sessions</t>
+  </si>
+  <si>
+    <t>135723538</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Ed Sheeran, Fireboy DML</t>
+  </si>
+  <si>
+    <t>2021-12-23</t>
+  </si>
+  <si>
+    <t>261286503</t>
+  </si>
+  <si>
+    <t>Thinking Out Loud</t>
+  </si>
+  <si>
+    <t>x [Multiply]</t>
+  </si>
+  <si>
+    <t>2280566092</t>
+  </si>
+  <si>
+    <t>Sigue</t>
+  </si>
+  <si>
+    <t>Ed Sheeran, J Balvin</t>
+  </si>
+  <si>
+    <t>1996-11-24</t>
+  </si>
+  <si>
+    <t>106933107</t>
+  </si>
+  <si>
+    <t>Photograph</t>
+  </si>
+  <si>
+    <t>2014-06-20</t>
+  </si>
+  <si>
+    <t>2236667932</t>
+  </si>
+  <si>
+    <t>Celestial</t>
+  </si>
+  <si>
+    <t>2022-09-29</t>
+  </si>
+  <si>
+    <t>176474912</t>
+  </si>
+  <si>
+    <t>We Found Love</t>
+  </si>
+  <si>
+    <t>Rihanna, Calvin Harris</t>
+  </si>
+  <si>
+    <t>Talk That Talk</t>
+  </si>
+  <si>
+    <t>1235005533</t>
+  </si>
+  <si>
+    <t>Lift Me Up - From Black Panther: Wakanda Forever - Music From and Inspired By</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>2022-10-28</t>
+  </si>
+  <si>
+    <t>297328960</t>
+  </si>
+  <si>
+    <t>Creep</t>
+  </si>
+  <si>
+    <t>Radiohead</t>
+  </si>
+  <si>
+    <t>Pablo Honey</t>
+  </si>
+  <si>
+    <t>1992-09-21</t>
+  </si>
+  <si>
+    <t>1271293243</t>
+  </si>
+  <si>
+    <t>Mockingbird</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Encore</t>
+  </si>
+  <si>
+    <t>2004-01-01</t>
+  </si>
+  <si>
+    <t>1241559043</t>
+  </si>
+  <si>
+    <t>Without Me</t>
+  </si>
+  <si>
+    <t>The Eminem Show</t>
+  </si>
+  <si>
+    <t>2002-01-01</t>
+  </si>
+  <si>
+    <t>1687664027</t>
+  </si>
+  <si>
+    <t>The Real Slim Shady</t>
+  </si>
+  <si>
+    <t>The Marshall Mathers LP</t>
+  </si>
+  <si>
+    <t>2000-01-01</t>
+  </si>
+  <si>
+    <t>1424589568</t>
+  </si>
+  <si>
+    <t>Superman</t>
+  </si>
+  <si>
+    <t>Eminem, Dina Rae</t>
+  </si>
+  <si>
+    <t>2002-05-26</t>
+  </si>
+  <si>
+    <t>655466831</t>
+  </si>
+  <si>
+    <t>'Till I Collapse</t>
+  </si>
+  <si>
+    <t>Eminem, Nate Dogg</t>
+  </si>
+  <si>
+    <t>1695712020</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>Eminem, Dido</t>
+  </si>
+  <si>
+    <t>1999-11-21</t>
+  </si>
+  <si>
+    <t>918915401</t>
+  </si>
+  <si>
+    <t>Praise God</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>Donda</t>
+  </si>
+  <si>
+    <t>2021-08-29</t>
+  </si>
+  <si>
+    <t>376333030</t>
+  </si>
+  <si>
+    <t>Heartless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">808s &amp; Heartbreak </t>
+  </si>
+  <si>
+    <t>2008-01-01</t>
+  </si>
+  <si>
+    <t>887906111</t>
+  </si>
+  <si>
+    <t>City of Gods</t>
+  </si>
+  <si>
+    <t>Kanye West, Alicia Keys, Fivio Foreign</t>
+  </si>
+  <si>
+    <t>Donda 2</t>
+  </si>
+  <si>
+    <t>107255472</t>
+  </si>
+  <si>
+    <t>True Love</t>
+  </si>
+  <si>
+    <t>Kanye West, XXXTENTACION</t>
+  </si>
+  <si>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>194902696</t>
+  </si>
+  <si>
+    <t>Hot Shit (feat. Ye &amp; Lil Durk)</t>
+  </si>
+  <si>
+    <t>Kanye West, Lil Durk, Cardi B</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>85924992</t>
+  </si>
+  <si>
+    <t>HUMBLE.</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar</t>
+  </si>
+  <si>
+    <t>DAMN.</t>
+  </si>
+  <si>
+    <t>2017-03-30</t>
+  </si>
+  <si>
+    <t>1929770265</t>
+  </si>
+  <si>
+    <t>N95</t>
+  </si>
+  <si>
+    <t>Mr. Morale &amp; The Big Steppers</t>
+  </si>
+  <si>
+    <t>2022-05-13</t>
+  </si>
+  <si>
+    <t>301242089</t>
+  </si>
+  <si>
+    <t>D#</t>
+  </si>
+  <si>
+    <t>United In Grief</t>
+  </si>
+  <si>
+    <t>156898322</t>
+  </si>
+  <si>
+    <t>Rich Spirit</t>
+  </si>
+  <si>
+    <t>173702135</t>
+  </si>
+  <si>
+    <t>Count Me Out</t>
+  </si>
+  <si>
+    <t>126191104</t>
+  </si>
+  <si>
+    <t>Worldwide Steppers</t>
+  </si>
+  <si>
+    <t>61739839</t>
+  </si>
+  <si>
+    <t>Rich - Interlude</t>
+  </si>
+  <si>
+    <t>41210087</t>
+  </si>
+  <si>
+    <t>Crown</t>
+  </si>
+  <si>
+    <t>42485571</t>
+  </si>
+  <si>
+    <t>Auntie Diaries</t>
+  </si>
+  <si>
+    <t>37778188</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>53603447</t>
+  </si>
+  <si>
+    <t>Savior - Interlude</t>
+  </si>
+  <si>
+    <t>37091576</t>
+  </si>
+  <si>
+    <t>The Heart Part 5</t>
+  </si>
+  <si>
+    <t>2022-05-08</t>
+  </si>
+  <si>
+    <t>71423324</t>
+  </si>
+  <si>
+    <t>Sweet Child O' Mine</t>
+  </si>
+  <si>
+    <t>Guns N' Roses</t>
+  </si>
+  <si>
+    <t>Appetite for Destruction</t>
+  </si>
+  <si>
+    <t>1987-01-01</t>
+  </si>
+  <si>
+    <t>1553497987</t>
+  </si>
+  <si>
+    <t>Locked Out Of Heaven</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>Unorthodox Jukebox</t>
+  </si>
+  <si>
+    <t>2012-12-05</t>
+  </si>
+  <si>
+    <t>1481349984</t>
+  </si>
+  <si>
+    <t>When I Was Your Man</t>
+  </si>
+  <si>
+    <t>1661187319</t>
+  </si>
+  <si>
+    <t>Just The Way You Are</t>
+  </si>
+  <si>
+    <t>Doo-Wops &amp; Hooligans</t>
+  </si>
+  <si>
+    <t>1641426668</t>
+  </si>
+  <si>
+    <t>Talking To The Moon</t>
+  </si>
+  <si>
+    <t>2010-10-04</t>
+  </si>
+  <si>
+    <t>1062956628</t>
+  </si>
+  <si>
+    <t>La Canción</t>
+  </si>
+  <si>
+    <t>J Balvin, Bad Bunny</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>2019-06-28</t>
+  </si>
+  <si>
+    <t>1435127549</t>
+  </si>
+  <si>
+    <t>Titi Me Pregunt</t>
+  </si>
+  <si>
+    <t>Bad Bunny</t>
+  </si>
+  <si>
+    <t>Un verano sin ti</t>
+  </si>
+  <si>
+    <t>1264310836</t>
+  </si>
+  <si>
+    <t>Efecto</t>
+  </si>
+  <si>
+    <t>1047480053</t>
+  </si>
+  <si>
+    <t>Neverita</t>
+  </si>
+  <si>
+    <t>671365962</t>
+  </si>
+  <si>
+    <t>Moscow Mule</t>
+  </si>
+  <si>
+    <t>909001996</t>
+  </si>
+  <si>
+    <t>Yonaguni</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>1260594497</t>
+  </si>
+  <si>
+    <t>A Tu Merced</t>
+  </si>
+  <si>
+    <t>YHLQMDLG</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>685071800</t>
+  </si>
+  <si>
+    <t>La Zona</t>
+  </si>
+  <si>
+    <t>312622938</t>
+  </si>
+  <si>
+    <t>Después de la playa</t>
+  </si>
+  <si>
+    <t>461558540</t>
+  </si>
+  <si>
+    <t>Un Ratito</t>
+  </si>
+  <si>
+    <t>417230415</t>
+  </si>
+  <si>
+    <t>Yo No Soy Celoso</t>
+  </si>
+  <si>
+    <t>313113297</t>
+  </si>
+  <si>
+    <t>Me Fui de Vacaciones</t>
+  </si>
+  <si>
+    <t>305650299</t>
+  </si>
+  <si>
+    <t>Dos Mil 16</t>
+  </si>
+  <si>
+    <t>338422004</t>
+  </si>
+  <si>
+    <t>Un Coco</t>
+  </si>
+  <si>
+    <t>403231558</t>
+  </si>
+  <si>
+    <t>Aguacero</t>
+  </si>
+  <si>
+    <t>283359161</t>
+  </si>
+  <si>
+    <t>Un Verano Sin Ti</t>
+  </si>
+  <si>
+    <t>283332261</t>
+  </si>
+  <si>
+    <t>Enséñame a bailar</t>
+  </si>
+  <si>
+    <t>279737940</t>
+  </si>
+  <si>
+    <t>El Apagón</t>
+  </si>
+  <si>
+    <t>212351890</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>246127838</t>
+  </si>
+  <si>
+    <t>vampire</t>
+  </si>
+  <si>
+    <t>Olivia Rodrigo</t>
+  </si>
+  <si>
+    <t>Guts</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>140003974</t>
+  </si>
+  <si>
+    <t>good 4 u</t>
+  </si>
+  <si>
+    <t>Sour</t>
+  </si>
+  <si>
+    <t>2021-05-14</t>
+  </si>
+  <si>
+    <t>1887039593</t>
+  </si>
+  <si>
+    <t>drivers license</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>1858144199</t>
+  </si>
+  <si>
+    <t>deja vu</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>1256880657</t>
+  </si>
+  <si>
+    <t>happier</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>850608354</t>
+  </si>
+  <si>
+    <t>favorite crime</t>
+  </si>
+  <si>
+    <t>783706581</t>
+  </si>
+  <si>
+    <t>jealousy, jealousy</t>
+  </si>
+  <si>
+    <t>665765558</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>Viva la vida or Death and All His Friends</t>
+  </si>
+  <si>
+    <t>1592909789</t>
+  </si>
+  <si>
+    <t>The Scientist</t>
+  </si>
+  <si>
+    <t>A Rush of Blood to the Head</t>
+  </si>
+  <si>
+    <t>2002-08-05</t>
+  </si>
+  <si>
+    <t>1608164312</t>
+  </si>
+  <si>
+    <t>Sparks</t>
+  </si>
+  <si>
+    <t>Parachutes</t>
+  </si>
+  <si>
+    <t>2000-07-10</t>
+  </si>
+  <si>
+    <t>624101957</t>
+  </si>
+  <si>
+    <t>Dance The Night (From Barbie The Album)</t>
+  </si>
+  <si>
+    <t>Dua Lipa</t>
+  </si>
+  <si>
+    <t>Single (not album)</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>127408954</t>
+  </si>
+  <si>
+    <t>Don't Start Now</t>
+  </si>
+  <si>
+    <t>Future Nostalgia</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>2303033973</t>
+  </si>
+  <si>
+    <t>Levitating</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>797196073</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Can See You (Taylor's Version) </t>
+  </si>
+  <si>
     <t>812019557</t>
   </si>
   <si>
-    <t>Minor</t>
-  </si>
-  <si>
-    <t>Karma</t>
-  </si>
-  <si>
-    <t>404562836</t>
-  </si>
-  <si>
-    <t>G#</t>
-  </si>
-  <si>
-    <t>Enchanted (Taylor's Version)</t>
-  </si>
-  <si>
-    <t>39578178</t>
-  </si>
-  <si>
-    <t>Back To December (Taylor's Version)</t>
-  </si>
-  <si>
-    <t>39228929</t>
-  </si>
-  <si>
-    <t>Mine (Taylor's Version)</t>
-  </si>
-  <si>
-    <t>36912123</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>august</t>
-  </si>
-  <si>
-    <t>607123776</t>
-  </si>
-  <si>
-    <t>Enchanted</t>
-  </si>
-  <si>
-    <t>Speak Now</t>
-  </si>
-  <si>
-    <t>2010-01-01</t>
-  </si>
-  <si>
-    <t>621660989</t>
-  </si>
-  <si>
-    <t>Shake It Off</t>
-  </si>
-  <si>
-    <t>1113838873</t>
-  </si>
-  <si>
-    <t>You Belong With Me (Taylor's Version)</t>
-  </si>
-  <si>
-    <t>Fearless(Taylor's Version)</t>
-  </si>
-  <si>
-    <t>2021-04-09</t>
-  </si>
-  <si>
-    <t>350381515</t>
-  </si>
-  <si>
-    <t>Better Than Revenge (Taylor's Version)</t>
-  </si>
-  <si>
-    <t>30343206</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Hits Different</t>
-  </si>
-  <si>
-    <t>Midnights(Lavender Edition)</t>
-  </si>
-  <si>
-    <t>2023-05-26</t>
-  </si>
-  <si>
-    <t>68616963</t>
-  </si>
-  <si>
-    <t>Lavender Haze</t>
-  </si>
-  <si>
-    <t>488386797</t>
-  </si>
-  <si>
-    <t>A#</t>
-  </si>
-  <si>
-    <t>Midnight Rain</t>
-  </si>
-  <si>
-    <t>433356509</t>
-  </si>
-  <si>
-    <t>You're On Your Own, Kid</t>
-  </si>
-  <si>
-    <t>348647203</t>
-  </si>
-  <si>
-    <t>Maroon</t>
-  </si>
-  <si>
-    <t>317726339</t>
-  </si>
-  <si>
-    <t>Bejeweled</t>
-  </si>
-  <si>
-    <t>328207708</t>
-  </si>
-  <si>
-    <t>All Too Well (10 Minute Version) (Taylor's Version) (From The Vault)</t>
-  </si>
-  <si>
-    <t>Red (Taylor's Version)</t>
-  </si>
-  <si>
-    <t>2021-11-12</t>
-  </si>
-  <si>
-    <t>583687007</t>
-  </si>
-  <si>
-    <t>The Joker And The Queen (feat. Taylor Swift)</t>
-  </si>
-  <si>
-    <t>Ed Sheeran, Taylor Swift</t>
-  </si>
-  <si>
-    <t>Single(not album)</t>
-  </si>
-  <si>
-    <t>2022-02-11</t>
-  </si>
-  <si>
-    <t>146789379</t>
-  </si>
-  <si>
-    <t>This Love (Taylor's Version)</t>
-  </si>
-  <si>
-    <t>1989 (Taylor's Version)</t>
-  </si>
-  <si>
-    <t>2022-05-06</t>
-  </si>
-  <si>
-    <t>132171975</t>
-  </si>
-  <si>
-    <t>Vigilante Shit</t>
-  </si>
-  <si>
-    <t>253650850</t>
-  </si>
-  <si>
-    <t>Question...?</t>
-  </si>
-  <si>
-    <t>223064273</t>
-  </si>
-  <si>
-    <t>Mastermind</t>
-  </si>
-  <si>
-    <t>218320587</t>
-  </si>
-  <si>
-    <t>Labyrinth</t>
-  </si>
-  <si>
-    <t>187339835</t>
-  </si>
-  <si>
-    <t>Sweet Nothing</t>
-  </si>
-  <si>
-    <t>186104310</t>
-  </si>
-  <si>
-    <t>Would've, Could've, Should've</t>
-  </si>
-  <si>
-    <t>177503916</t>
-  </si>
-  <si>
-    <t>The Great War</t>
-  </si>
-  <si>
-    <t>181382590</t>
-  </si>
-  <si>
-    <t>Bigger Than The Whole Sky</t>
-  </si>
-  <si>
-    <t>121871870</t>
-  </si>
-  <si>
-    <t>My Only Wish (This Year)</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t>2000-11-07</t>
-  </si>
-  <si>
-    <t>261116938</t>
-  </si>
-  <si>
-    <t>Hold Me Closer</t>
-  </si>
-  <si>
-    <t>Elton John, Britney Spears</t>
-  </si>
-  <si>
-    <t>2017-11-10</t>
-  </si>
-  <si>
-    <t>284216603</t>
-  </si>
-  <si>
-    <t>CUFF IT</t>
-  </si>
-  <si>
-    <t>Beyoncé</t>
-  </si>
-  <si>
-    <t>Renaissance</t>
-  </si>
-  <si>
-    <t>2022-07-29</t>
-  </si>
-  <si>
-    <t>595900742</t>
-  </si>
-  <si>
     <t>AMERICA HAS A PROBLEM (feat. Kendrick Lamar)</t>
   </si>
   <si>
-    <t>Kendrick Lamar, Beyoncé</t>
-  </si>
-  <si>
-    <t>2023-05-19</t>
-  </si>
-  <si>
-    <t>57089066</t>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
-    <t>BREAK MY SOUL</t>
-  </si>
-  <si>
-    <t>2022-06-21</t>
-  </si>
-  <si>
-    <t>354614964</t>
-  </si>
-  <si>
-    <t>ALIEN SUPERSTAR</t>
-  </si>
-  <si>
-    <t>171788484</t>
-  </si>
-  <si>
-    <t>Bloody Mary</t>
-  </si>
-  <si>
-    <t>Lady Gaga</t>
-  </si>
-  <si>
-    <t>Born This Way</t>
-  </si>
-  <si>
-    <t>2011-01-01</t>
-  </si>
-  <si>
-    <t>372476382</t>
-  </si>
-  <si>
-    <t>Shallow</t>
-  </si>
-  <si>
-    <t>Lady Gaga, Bradley Cooper</t>
-  </si>
-  <si>
-    <t>A Star is Born</t>
-  </si>
-  <si>
-    <t>2018-09-27</t>
-  </si>
-  <si>
-    <t>2159346687</t>
-  </si>
-  <si>
-    <t>Hold My Hand</t>
-  </si>
-  <si>
-    <t>Top Gun: Maverick</t>
-  </si>
-  <si>
-    <t>2022-05-03</t>
-  </si>
-  <si>
-    <t>238350348</t>
-  </si>
-  <si>
-    <t>STAY (with Justin Bieber)</t>
-  </si>
-  <si>
-    <t>Justin Bieber, The Kid Laroi</t>
-  </si>
-  <si>
-    <t>F*ck Love 3: Over You</t>
-  </si>
-  <si>
-    <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>2665343922</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t>Justice</t>
-  </si>
-  <si>
-    <t>2021-03-19</t>
-  </si>
-  <si>
-    <t>1167330737</t>
-  </si>
-  <si>
-    <t>Private Landing (feat. Justin Bieber &amp; Future)</t>
-  </si>
-  <si>
-    <t>Don Toliver, Future, Justin Bieber</t>
-  </si>
-  <si>
-    <t>Love Sick</t>
-  </si>
-  <si>
-    <t>2023-02-23</t>
-  </si>
-  <si>
-    <t>105062254</t>
-  </si>
-  <si>
-    <t>Mistletoe</t>
-  </si>
-  <si>
-    <t>Under the Mistletoe</t>
-  </si>
-  <si>
-    <t>629173063</t>
-  </si>
-  <si>
-    <t>Peaches (feat. Daniel Caesar &amp; Giveon)</t>
-  </si>
-  <si>
-    <t>Justin Bieber, Daniel Caesar, Giveon</t>
-  </si>
-  <si>
-    <t>1445941661</t>
-  </si>
-  <si>
-    <t>Love Yourself</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>2015-11-09</t>
-  </si>
-  <si>
-    <t>2123309722</t>
-  </si>
-  <si>
-    <t>Honest (feat. Don Toliver)</t>
-  </si>
-  <si>
-    <t>Justin Bieber, Don Toliver</t>
-  </si>
-  <si>
-    <t>2022-04-29</t>
-  </si>
-  <si>
-    <t>106919680</t>
-  </si>
-  <si>
-    <t>Perfect</t>
-  </si>
-  <si>
-    <t>Ed Sheeran</t>
-  </si>
-  <si>
-    <t>÷ (Divide)</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>2559529074</t>
-  </si>
-  <si>
-    <t>Shape of You</t>
-  </si>
-  <si>
-    <t>2017-01-06</t>
-  </si>
-  <si>
-    <t>3562543890</t>
-  </si>
-  <si>
-    <t>Eyes Closed</t>
-  </si>
-  <si>
-    <t>- [Subtract]</t>
-  </si>
-  <si>
-    <t>2023-03-23</t>
-  </si>
-  <si>
-    <t>195576623</t>
-  </si>
-  <si>
-    <t>Curtains</t>
-  </si>
-  <si>
-    <t>2023-05-05</t>
-  </si>
-  <si>
-    <t>39893489</t>
-  </si>
-  <si>
-    <t>Shivers</t>
-  </si>
-  <si>
-    <t>= [Equals]</t>
-  </si>
-  <si>
-    <t>2021-09-09</t>
-  </si>
-  <si>
-    <t>1302184087</t>
-  </si>
-  <si>
-    <t>Bad Habits</t>
-  </si>
-  <si>
-    <t>2020-09-03</t>
-  </si>
-  <si>
-    <t>1555511105</t>
-  </si>
-  <si>
-    <t>Merry Christmas</t>
-  </si>
-  <si>
-    <t>Ed Sheeran, Elton John</t>
-  </si>
-  <si>
-    <t>The Lockdown Sessions</t>
-  </si>
-  <si>
-    <t>135723538</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Ed Sheeran, Fireboy DML</t>
-  </si>
-  <si>
-    <t>2021-12-23</t>
-  </si>
-  <si>
-    <t>261286503</t>
-  </si>
-  <si>
-    <t>Thinking Out Loud</t>
-  </si>
-  <si>
-    <t>x [Multiply]</t>
-  </si>
-  <si>
-    <t>2280566092</t>
-  </si>
-  <si>
-    <t>Sigue</t>
-  </si>
-  <si>
-    <t>Ed Sheeran, J Balvin</t>
-  </si>
-  <si>
-    <t>1996-11-24</t>
-  </si>
-  <si>
-    <t>106933107</t>
-  </si>
-  <si>
-    <t>Photograph</t>
-  </si>
-  <si>
-    <t>2014-06-20</t>
-  </si>
-  <si>
-    <t>2236667932</t>
-  </si>
-  <si>
-    <t>Celestial</t>
-  </si>
-  <si>
-    <t>2022-09-29</t>
-  </si>
-  <si>
-    <t>176474912</t>
-  </si>
-  <si>
-    <t>We Found Love</t>
-  </si>
-  <si>
-    <t>Rihanna, Calvin Harris</t>
-  </si>
-  <si>
-    <t>Talk That Talk</t>
-  </si>
-  <si>
-    <t>1235005533</t>
-  </si>
-  <si>
-    <t>Lift Me Up - From Black Panther: Wakanda Forever - Music From and Inspired By</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
-    <t>2022-10-28</t>
-  </si>
-  <si>
-    <t>297328960</t>
-  </si>
-  <si>
-    <t>Creep</t>
-  </si>
-  <si>
-    <t>Radiohead</t>
-  </si>
-  <si>
-    <t>Pablo Honey</t>
-  </si>
-  <si>
-    <t>1992-09-21</t>
-  </si>
-  <si>
-    <t>1271293243</t>
-  </si>
-  <si>
-    <t>Mockingbird</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Encore</t>
-  </si>
-  <si>
-    <t>2004-01-01</t>
-  </si>
-  <si>
-    <t>1241559043</t>
-  </si>
-  <si>
-    <t>Without Me</t>
-  </si>
-  <si>
-    <t>The Eminem Show</t>
-  </si>
-  <si>
-    <t>2002-01-01</t>
-  </si>
-  <si>
-    <t>1687664027</t>
-  </si>
-  <si>
-    <t>The Real Slim Shady</t>
-  </si>
-  <si>
-    <t>The Marshall Mathers LP</t>
-  </si>
-  <si>
-    <t>2000-01-01</t>
-  </si>
-  <si>
-    <t>1424589568</t>
-  </si>
-  <si>
-    <t>Superman</t>
-  </si>
-  <si>
-    <t>Eminem, Dina Rae</t>
-  </si>
-  <si>
-    <t>2002-05-26</t>
-  </si>
-  <si>
-    <t>655466831</t>
-  </si>
-  <si>
-    <t>'Till I Collapse</t>
-  </si>
-  <si>
-    <t>Eminem, Nate Dogg</t>
-  </si>
-  <si>
-    <t>1695712020</t>
-  </si>
-  <si>
-    <t>Stan</t>
-  </si>
-  <si>
-    <t>Eminem, Dido</t>
-  </si>
-  <si>
-    <t>1999-11-21</t>
-  </si>
-  <si>
-    <t>918915401</t>
-  </si>
-  <si>
-    <t>Praise God</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
-  </si>
-  <si>
-    <t>Donda</t>
-  </si>
-  <si>
-    <t>2021-08-29</t>
-  </si>
-  <si>
-    <t>376333030</t>
-  </si>
-  <si>
-    <t>Heartless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">808s &amp; Heartbreak </t>
-  </si>
-  <si>
-    <t>2008-01-01</t>
-  </si>
-  <si>
-    <t>887906111</t>
-  </si>
-  <si>
-    <t>City of Gods</t>
-  </si>
-  <si>
-    <t>Kanye West, Alicia Keys, Fivio Foreign</t>
-  </si>
-  <si>
-    <t>Donda 2</t>
-  </si>
-  <si>
-    <t>107255472</t>
-  </si>
-  <si>
-    <t>True Love</t>
-  </si>
-  <si>
-    <t>Kanye West, XXXTENTACION</t>
-  </si>
-  <si>
-    <t>2022-05-27</t>
-  </si>
-  <si>
-    <t>194902696</t>
-  </si>
-  <si>
-    <t>Hot Shit (feat. Ye &amp; Lil Durk)</t>
-  </si>
-  <si>
-    <t>Kanye West, Lil Durk, Cardi B</t>
-  </si>
-  <si>
-    <t>2022-07-01</t>
-  </si>
-  <si>
-    <t>85924992</t>
-  </si>
-  <si>
-    <t>HUMBLE.</t>
-  </si>
-  <si>
-    <t>Kendrick Lamar</t>
-  </si>
-  <si>
-    <t>DAMN.</t>
-  </si>
-  <si>
-    <t>2017-03-30</t>
-  </si>
-  <si>
-    <t>1929770265</t>
-  </si>
-  <si>
-    <t>N95</t>
-  </si>
-  <si>
-    <t>Mr. Morale &amp; The Big Steppers</t>
-  </si>
-  <si>
-    <t>2022-05-13</t>
-  </si>
-  <si>
-    <t>301242089</t>
-  </si>
-  <si>
-    <t>D#</t>
-  </si>
-  <si>
-    <t>United In Grief</t>
-  </si>
-  <si>
-    <t>156898322</t>
-  </si>
-  <si>
-    <t>Rich Spirit</t>
-  </si>
-  <si>
-    <t>173702135</t>
-  </si>
-  <si>
-    <t>Count Me Out</t>
-  </si>
-  <si>
-    <t>126191104</t>
-  </si>
-  <si>
-    <t>Worldwide Steppers</t>
-  </si>
-  <si>
-    <t>61739839</t>
-  </si>
-  <si>
-    <t>Rich - Interlude</t>
-  </si>
-  <si>
-    <t>41210087</t>
-  </si>
-  <si>
-    <t>Crown</t>
-  </si>
-  <si>
-    <t>42485571</t>
-  </si>
-  <si>
-    <t>Auntie Diaries</t>
-  </si>
-  <si>
-    <t>37778188</t>
-  </si>
-  <si>
-    <t>Mirror</t>
-  </si>
-  <si>
-    <t>53603447</t>
-  </si>
-  <si>
-    <t>Savior - Interlude</t>
-  </si>
-  <si>
-    <t>37091576</t>
-  </si>
-  <si>
-    <t>The Heart Part 5</t>
-  </si>
-  <si>
-    <t>2022-05-08</t>
-  </si>
-  <si>
-    <t>71423324</t>
-  </si>
-  <si>
-    <t>Sweet Child O' Mine</t>
-  </si>
-  <si>
-    <t>Guns N' Roses</t>
-  </si>
-  <si>
-    <t>Appetite for Destruction</t>
-  </si>
-  <si>
-    <t>1987-01-01</t>
-  </si>
-  <si>
-    <t>1553497987</t>
-  </si>
-  <si>
-    <t>Locked Out Of Heaven</t>
-  </si>
-  <si>
-    <t>Bruno Mars</t>
-  </si>
-  <si>
-    <t>Unorthodox Jukebox</t>
-  </si>
-  <si>
-    <t>2012-12-05</t>
-  </si>
-  <si>
-    <t>1481349984</t>
-  </si>
-  <si>
-    <t>When I Was Your Man</t>
-  </si>
-  <si>
-    <t>1661187319</t>
-  </si>
-  <si>
-    <t>Just The Way You Are</t>
-  </si>
-  <si>
-    <t>Doo-Wops &amp; Hooligans</t>
-  </si>
-  <si>
-    <t>1641426668</t>
-  </si>
-  <si>
-    <t>Talking To The Moon</t>
-  </si>
-  <si>
-    <t>2010-10-04</t>
-  </si>
-  <si>
-    <t>1062956628</t>
-  </si>
-  <si>
-    <t>La Canción</t>
-  </si>
-  <si>
-    <t>J Balvin, Bad Bunny</t>
-  </si>
-  <si>
-    <t>Oasis</t>
-  </si>
-  <si>
-    <t>2019-06-28</t>
-  </si>
-  <si>
-    <t>1435127549</t>
-  </si>
-  <si>
-    <t>Titi Me Pregunt</t>
-  </si>
-  <si>
-    <t>Bad Bunny</t>
-  </si>
-  <si>
-    <t>Un verano sin ti</t>
-  </si>
-  <si>
-    <t>1264310836</t>
-  </si>
-  <si>
-    <t>Efecto</t>
-  </si>
-  <si>
-    <t>1047480053</t>
-  </si>
-  <si>
-    <t>Neverita</t>
-  </si>
-  <si>
-    <t>671365962</t>
-  </si>
-  <si>
-    <t>Moscow Mule</t>
-  </si>
-  <si>
-    <t>909001996</t>
-  </si>
-  <si>
-    <t>Yonaguni</t>
-  </si>
-  <si>
-    <t>2021-06-04</t>
-  </si>
-  <si>
-    <t>1260594497</t>
-  </si>
-  <si>
-    <t>A Tu Merced</t>
-  </si>
-  <si>
-    <t>YHLQMDLG</t>
-  </si>
-  <si>
-    <t>2020-02-29</t>
-  </si>
-  <si>
-    <t>685071800</t>
-  </si>
-  <si>
-    <t>La Zona</t>
-  </si>
-  <si>
-    <t>312622938</t>
-  </si>
-  <si>
-    <t>Después de la playa</t>
-  </si>
-  <si>
-    <t>461558540</t>
-  </si>
-  <si>
-    <t>Un Ratito</t>
-  </si>
-  <si>
-    <t>417230415</t>
-  </si>
-  <si>
-    <t>Yo No Soy Celoso</t>
-  </si>
-  <si>
-    <t>313113297</t>
-  </si>
-  <si>
-    <t>Me Fui de Vacaciones</t>
-  </si>
-  <si>
-    <t>305650299</t>
-  </si>
-  <si>
-    <t>Dos Mil 16</t>
-  </si>
-  <si>
-    <t>338422004</t>
-  </si>
-  <si>
-    <t>Un Coco</t>
-  </si>
-  <si>
-    <t>403231558</t>
-  </si>
-  <si>
-    <t>Aguacero</t>
-  </si>
-  <si>
-    <t>283359161</t>
-  </si>
-  <si>
-    <t>Un Verano Sin Ti</t>
-  </si>
-  <si>
-    <t>283332261</t>
-  </si>
-  <si>
-    <t>Enséñame a bailar</t>
-  </si>
-  <si>
-    <t>279737940</t>
-  </si>
-  <si>
-    <t>El Apagón</t>
-  </si>
-  <si>
-    <t>212351890</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>246127838</t>
-  </si>
-  <si>
-    <t>vampire</t>
-  </si>
-  <si>
-    <t>Olivia Rodrigo</t>
-  </si>
-  <si>
-    <t>Guts</t>
-  </si>
-  <si>
-    <t>2023-06-30</t>
-  </si>
-  <si>
-    <t>140003974</t>
-  </si>
-  <si>
-    <t>good 4 u</t>
-  </si>
-  <si>
-    <t>Sour</t>
-  </si>
-  <si>
-    <t>2021-05-14</t>
-  </si>
-  <si>
-    <t>1887039593</t>
-  </si>
-  <si>
-    <t>drivers license</t>
-  </si>
-  <si>
-    <t>2021-01-08</t>
-  </si>
-  <si>
-    <t>1858144199</t>
-  </si>
-  <si>
-    <t>deja vu</t>
-  </si>
-  <si>
-    <t>2021-04-01</t>
-  </si>
-  <si>
-    <t>1256880657</t>
-  </si>
-  <si>
-    <t>happier</t>
-  </si>
-  <si>
-    <t>2021-05-21</t>
-  </si>
-  <si>
-    <t>850608354</t>
-  </si>
-  <si>
-    <t>favorite crime</t>
-  </si>
-  <si>
-    <t>783706581</t>
-  </si>
-  <si>
-    <t>jealousy, jealousy</t>
-  </si>
-  <si>
-    <t>665765558</t>
-  </si>
-  <si>
-    <t>Viva La Vida</t>
-  </si>
-  <si>
-    <t>Coldplay</t>
-  </si>
-  <si>
-    <t>Viva la vida or Death and All His Friends</t>
-  </si>
-  <si>
-    <t>1592909789</t>
-  </si>
-  <si>
-    <t>The Scientist</t>
-  </si>
-  <si>
-    <t>A Rush of Blood to the Head</t>
-  </si>
-  <si>
-    <t>2002-08-05</t>
-  </si>
-  <si>
-    <t>1608164312</t>
-  </si>
-  <si>
-    <t>Sparks</t>
-  </si>
-  <si>
-    <t>Parachutes</t>
-  </si>
-  <si>
-    <t>2000-07-10</t>
-  </si>
-  <si>
-    <t>624101957</t>
-  </si>
-  <si>
-    <t>Dance The Night (From Barbie The Album)</t>
-  </si>
-  <si>
-    <t>Dua Lipa</t>
-  </si>
-  <si>
-    <t>Single (not album)</t>
-  </si>
-  <si>
-    <t>2023-05-25</t>
-  </si>
-  <si>
-    <t>127408954</t>
-  </si>
-  <si>
-    <t>Don't Start Now</t>
-  </si>
-  <si>
-    <t>Future Nostalgia</t>
-  </si>
-  <si>
-    <t>2019-10-31</t>
-  </si>
-  <si>
-    <t>2303033973</t>
-  </si>
-  <si>
-    <t>Levitating</t>
-  </si>
-  <si>
-    <t>2020-03-27</t>
-  </si>
-  <si>
-    <t>797196073</t>
+    <t>Viva la Vida</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1385,7 +1385,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1705,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C213D7D-7F45-4AB7-975C-EEEC40DF0360}">
-  <dimension ref="A1:Q125"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:XFD123"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,37 +1770,35 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
       </c>
       <c r="G2">
         <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2">
         <v>55</v>
@@ -1827,31 +1824,31 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
       </c>
       <c r="G3">
         <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3">
         <v>69</v>
@@ -1877,31 +1874,31 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>30</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
       </c>
       <c r="G4">
         <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4">
         <v>64</v>
@@ -1927,31 +1924,31 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1989</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
       </c>
       <c r="G5">
         <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5">
         <v>75</v>
@@ -1977,31 +1974,31 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1989</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>95</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6">
         <v>60</v>
@@ -2027,28 +2024,28 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
+      <c r="F7" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="G7">
         <v>130</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>61</v>
@@ -2074,31 +2071,31 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8">
         <v>64</v>
@@ -2124,31 +2121,31 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G9">
         <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9">
         <v>51</v>
@@ -2174,31 +2171,31 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>142</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10">
         <v>50</v>
@@ -2224,31 +2221,31 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <v>121</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11">
         <v>65</v>
@@ -2274,31 +2271,31 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12">
         <v>51</v>
@@ -2324,31 +2321,31 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
         <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
       </c>
       <c r="G13">
         <v>164</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13">
         <v>45</v>
@@ -2374,31 +2371,31 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1989</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G14">
         <v>160</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14">
         <v>65</v>
@@ -2424,31 +2421,31 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
         <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
       </c>
       <c r="G15">
         <v>130</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <v>63</v>
@@ -2474,31 +2471,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G16">
         <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>50</v>
@@ -2524,31 +2521,31 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
         <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
       </c>
       <c r="G17">
         <v>106</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17">
         <v>67</v>
@@ -2574,31 +2571,31 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18">
         <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J18">
         <v>73</v>
@@ -2624,28 +2621,28 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>140</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19">
         <v>64</v>
@@ -2671,31 +2668,31 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G20">
         <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20">
         <v>69</v>
@@ -2721,31 +2718,31 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G21">
         <v>108</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J21">
         <v>64</v>
@@ -2771,31 +2768,31 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G22">
         <v>164</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J22">
         <v>70</v>
@@ -2821,28 +2818,28 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
         <v>86</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
       </c>
       <c r="G23">
         <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J23">
         <v>63</v>
@@ -2868,28 +2865,28 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G24">
         <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24">
         <v>53</v>
@@ -2915,31 +2912,31 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
         <v>95</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" t="s">
-        <v>98</v>
       </c>
       <c r="G25">
         <v>144</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J25">
         <v>47</v>
@@ -2965,31 +2962,31 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G26">
         <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>80</v>
@@ -3015,31 +3012,31 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G27">
         <v>109</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J27">
         <v>75</v>
@@ -3065,31 +3062,31 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G28">
         <v>126</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J28">
         <v>66</v>
@@ -3115,28 +3112,28 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G29">
         <v>110</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29">
         <v>48</v>
@@ -3162,28 +3159,28 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G30">
         <v>177</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J30">
         <v>34</v>
@@ -3209,31 +3206,31 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G31">
         <v>158</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J31">
         <v>48</v>
@@ -3259,31 +3256,31 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G32">
         <v>96</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J32">
         <v>57</v>
@@ -3309,31 +3306,31 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G33">
         <v>166</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J33">
         <v>42</v>
@@ -3359,28 +3356,28 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
         <v>115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" t="s">
-        <v>118</v>
       </c>
       <c r="G34">
         <v>147</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J34">
         <v>67</v>
@@ -3406,28 +3403,28 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G35">
         <v>126</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J35">
         <v>67</v>
@@ -3453,31 +3450,31 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
         <v>123</v>
       </c>
-      <c r="B36" t="s">
+      <c r="F36" t="s">
         <v>124</v>
-      </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" t="s">
-        <v>127</v>
       </c>
       <c r="G36">
         <v>115</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J36">
         <v>78</v>
@@ -3503,31 +3500,31 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>421</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G37">
         <v>126</v>
       </c>
       <c r="H37" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J37">
         <v>78</v>
@@ -3553,31 +3550,31 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G38">
         <v>115</v>
       </c>
       <c r="H38" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>70</v>
@@ -3603,31 +3600,31 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G39">
         <v>122</v>
       </c>
       <c r="H39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>55</v>
@@ -3653,31 +3650,31 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" t="s">
         <v>138</v>
-      </c>
-      <c r="B40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>141</v>
-      </c>
-      <c r="F40" t="s">
-        <v>142</v>
       </c>
       <c r="G40">
         <v>100</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>59</v>
@@ -3703,31 +3700,31 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F41" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G41">
         <v>96</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J41">
         <v>57</v>
@@ -3753,31 +3750,31 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F42" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G42">
         <v>148</v>
       </c>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J42">
         <v>51</v>
@@ -3803,31 +3800,31 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G43">
         <v>170</v>
       </c>
       <c r="H43" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J43">
         <v>59</v>
@@ -3853,31 +3850,31 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" t="s">
         <v>157</v>
-      </c>
-      <c r="B44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" t="s">
-        <v>161</v>
       </c>
       <c r="G44">
         <v>154</v>
       </c>
       <c r="H44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J44">
         <v>61</v>
@@ -3903,31 +3900,31 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G45">
         <v>137</v>
       </c>
       <c r="H45" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <v>84</v>
@@ -3953,31 +3950,31 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G46">
         <v>162</v>
       </c>
       <c r="H46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J46">
         <v>67</v>
@@ -4003,28 +4000,28 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F47" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G47">
         <v>90</v>
       </c>
       <c r="I47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J47">
         <v>63</v>
@@ -4050,31 +4047,31 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F48" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G48">
         <v>100</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J48">
         <v>61</v>
@@ -4100,31 +4097,31 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F49" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G49">
         <v>150</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J49">
         <v>82</v>
@@ -4150,31 +4147,31 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" t="s">
         <v>181</v>
-      </c>
-      <c r="B50" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>184</v>
-      </c>
-      <c r="F50" t="s">
-        <v>185</v>
       </c>
       <c r="G50">
         <v>95</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J50">
         <v>60</v>
@@ -4200,31 +4197,31 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
         <v>183</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>187</v>
-      </c>
       <c r="F51" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G51">
         <v>96</v>
       </c>
       <c r="H51" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J51">
         <v>83</v>
@@ -4250,31 +4247,31 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G52">
         <v>107</v>
       </c>
       <c r="H52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J52">
         <v>78</v>
@@ -4300,31 +4297,31 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
         <v>190</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>194</v>
-      </c>
       <c r="F53" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G53">
         <v>176</v>
       </c>
       <c r="H53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I53" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>50</v>
@@ -4350,31 +4347,31 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>197</v>
+        <v>178</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F54" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G54">
         <v>141</v>
       </c>
       <c r="H54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J54">
         <v>79</v>
@@ -4400,31 +4397,31 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C55" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
         <v>197</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>201</v>
-      </c>
       <c r="F55" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G55">
         <v>126</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J55">
         <v>81</v>
@@ -4450,28 +4447,28 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F56" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G56">
         <v>114</v>
       </c>
       <c r="I56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J56">
         <v>59</v>
@@ -4497,31 +4494,31 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F57" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G57">
         <v>108</v>
       </c>
       <c r="H57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J57">
         <v>96</v>
@@ -4547,46 +4544,49 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c r="G58">
-        <v>134</v>
+        <v>79</v>
+      </c>
+      <c r="H58" t="s">
+        <v>38</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J58">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="K58">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M58">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="P58">
         <v>3</v>
@@ -4594,52 +4594,52 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" t="s">
         <v>211</v>
       </c>
-      <c r="B59" t="s">
-        <v>182</v>
-      </c>
       <c r="C59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
         <v>212</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>35</v>
       </c>
       <c r="F59" t="s">
         <v>213</v>
       </c>
       <c r="G59">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J59">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L59">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M59">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -4647,146 +4647,146 @@
         <v>214</v>
       </c>
       <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
         <v>215</v>
       </c>
-      <c r="C60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>216</v>
       </c>
-      <c r="F60" t="s">
-        <v>217</v>
-      </c>
       <c r="G60">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H60" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J60">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="K60">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="L60">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="M60">
+        <v>61</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>10</v>
+      </c>
+      <c r="P60">
         <v>5</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>19</v>
-      </c>
-      <c r="P60">
-        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>217</v>
+      </c>
+      <c r="B61" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
         <v>218</v>
       </c>
-      <c r="B61" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" t="s">
-        <v>212</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>219</v>
       </c>
-      <c r="F61" t="s">
-        <v>220</v>
-      </c>
       <c r="G61">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H61" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J61">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K61">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L61">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="M61">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P61">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" t="s">
         <v>221</v>
       </c>
-      <c r="B62" t="s">
-        <v>182</v>
-      </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="F62" t="s">
         <v>223</v>
       </c>
       <c r="G62">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H62" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="I62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J62">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K62">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L62">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P62">
         <v>4</v>
@@ -4800,46 +4800,46 @@
         <v>225</v>
       </c>
       <c r="C63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
         <v>226</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>141</v>
       </c>
       <c r="F63" t="s">
         <v>227</v>
       </c>
       <c r="G63">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="H63" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J63">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="K63">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="L63">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="M63">
+        <v>90</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>13</v>
+      </c>
+      <c r="P63">
         <v>3</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>11</v>
-      </c>
-      <c r="P63">
-        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -4850,104 +4850,104 @@
         <v>229</v>
       </c>
       <c r="C64" t="s">
+        <v>230</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>231</v>
+      </c>
+      <c r="F64" t="s">
+        <v>232</v>
+      </c>
+      <c r="G64">
         <v>92</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>230</v>
-      </c>
-      <c r="F64" t="s">
-        <v>231</v>
-      </c>
-      <c r="G64">
-        <v>177</v>
-      </c>
       <c r="H64" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J64">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="K64">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L64">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M64">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P64">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G65">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I65" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J65">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K65">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L65">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P65">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C66" t="s">
         <v>239</v>
@@ -4962,34 +4962,34 @@
         <v>241</v>
       </c>
       <c r="G66">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="H66" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I66" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J66">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="K66">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="L66">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M66">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="P66">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -4997,7 +4997,7 @@
         <v>242</v>
       </c>
       <c r="B67" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C67" t="s">
         <v>243</v>
@@ -5012,34 +5012,34 @@
         <v>245</v>
       </c>
       <c r="G67">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H67" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I67" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J67">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K67">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L67">
         <v>66</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -5047,13 +5047,13 @@
         <v>246</v>
       </c>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C68" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" t="s">
         <v>248</v>
@@ -5062,31 +5062,31 @@
         <v>249</v>
       </c>
       <c r="G68">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="H68" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I68" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J68">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K68">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L68">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P68">
         <v>6</v>
@@ -5100,54 +5100,54 @@
         <v>251</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
+        <v>248</v>
+      </c>
+      <c r="F69" t="s">
         <v>252</v>
       </c>
-      <c r="F69" t="s">
-        <v>253</v>
-      </c>
       <c r="G69">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="H69" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="I69" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J69">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K69">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="L69">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69">
+        <v>8</v>
+      </c>
+      <c r="P69">
         <v>20</v>
-      </c>
-      <c r="P69">
-        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70" t="s">
         <v>254</v>
-      </c>
-      <c r="B70" t="s">
-        <v>255</v>
       </c>
       <c r="C70" t="s">
         <v>243</v>
@@ -5156,40 +5156,40 @@
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F70" t="s">
         <v>256</v>
       </c>
       <c r="G70">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="I70" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J70">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="K70">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="L70">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="P70">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -5200,54 +5200,54 @@
         <v>258</v>
       </c>
       <c r="C71" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G71">
+        <v>118</v>
+      </c>
+      <c r="H71" t="s">
+        <v>128</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71">
         <v>80</v>
       </c>
-      <c r="H71" t="s">
-        <v>28</v>
-      </c>
-      <c r="I71" t="s">
-        <v>45</v>
-      </c>
-      <c r="J71">
-        <v>78</v>
-      </c>
       <c r="K71">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="L71">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="M71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="P71">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B72" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C72" t="s">
         <v>263</v>
@@ -5262,34 +5262,34 @@
         <v>265</v>
       </c>
       <c r="G72">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="I72" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J72">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K72">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="L72">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P72">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -5297,49 +5297,49 @@
         <v>266</v>
       </c>
       <c r="B73" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>268</v>
+        <v>90</v>
       </c>
       <c r="F73" t="s">
         <v>269</v>
       </c>
       <c r="G73">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="H73" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="I73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J73">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L73">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="P73">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -5350,46 +5350,46 @@
         <v>271</v>
       </c>
       <c r="C74" t="s">
+        <v>268</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
         <v>272</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74" t="s">
-        <v>93</v>
       </c>
       <c r="F74" t="s">
         <v>273</v>
       </c>
       <c r="G74">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I74" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J74">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="K74">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L74">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M74">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="P74">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -5400,10 +5400,10 @@
         <v>275</v>
       </c>
       <c r="C75" t="s">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" t="s">
         <v>276</v>
@@ -5412,34 +5412,34 @@
         <v>277</v>
       </c>
       <c r="G75">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="H75" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I75" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J75">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="K75">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="L75">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="P75">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -5450,34 +5450,34 @@
         <v>279</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>280</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G76">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H76" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="I76" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J76">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K76">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L76">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -5486,18 +5486,18 @@
         <v>0</v>
       </c>
       <c r="O76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P76">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C77" t="s">
         <v>284</v>
@@ -5512,631 +5512,631 @@
         <v>286</v>
       </c>
       <c r="G77">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H77" t="s">
-        <v>132</v>
+        <v>287</v>
       </c>
       <c r="I77" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J77">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K77">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L77">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="N77">
         <v>0</v>
       </c>
       <c r="O77">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P77">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C78" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78" t="s">
+        <v>285</v>
+      </c>
+      <c r="F78" t="s">
         <v>289</v>
       </c>
-      <c r="F78" t="s">
-        <v>290</v>
-      </c>
       <c r="G78">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="I78" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J78">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="K78">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="L78">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="M78">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P78">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B79" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C79" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F79" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G79">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="I79" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J79">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="K79">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L79">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="M79">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N79">
         <v>0</v>
       </c>
       <c r="O79">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="P79">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B80" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C80" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F80" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G80">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="H80" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I80" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J80">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K80">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L80">
         <v>43</v>
       </c>
       <c r="M80">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="N80">
         <v>0</v>
       </c>
       <c r="O80">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P80">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B81" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C81" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F81" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G81">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="H81" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="I81" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J81">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K81">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L81">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M81">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
       <c r="O81">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P81">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B82" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C82" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F82" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G82">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="H82" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I82" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J82">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K82">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="L82">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M82">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N82">
         <v>0</v>
       </c>
       <c r="O82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P82">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B83" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C83" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F83" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G83">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="H83" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="I83" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J83">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K83">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="L83">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M83">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P83">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B84" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C84" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F84" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G84">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="I84" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J84">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="L84">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M84">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="P84">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B85" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F85" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G85">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H85" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I85" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85">
+        <v>66</v>
+      </c>
+      <c r="K85">
+        <v>29</v>
+      </c>
+      <c r="L85">
+        <v>65</v>
+      </c>
+      <c r="M85">
         <v>23</v>
       </c>
-      <c r="J85">
-        <v>43</v>
-      </c>
-      <c r="K85">
-        <v>60</v>
-      </c>
-      <c r="L85">
-        <v>38</v>
-      </c>
-      <c r="M85">
-        <v>76</v>
-      </c>
       <c r="N85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="P85">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B86" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C86" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F86" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G86">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H86" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I86" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J86">
         <v>66</v>
       </c>
       <c r="K86">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="L86">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M86">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="P86">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>306</v>
+      </c>
+      <c r="B87" t="s">
+        <v>279</v>
+      </c>
+      <c r="C87" t="s">
+        <v>284</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>307</v>
+      </c>
+      <c r="F87" t="s">
         <v>308</v>
       </c>
-      <c r="B87" t="s">
-        <v>283</v>
-      </c>
-      <c r="C87" t="s">
-        <v>288</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
-        <v>289</v>
-      </c>
-      <c r="F87" t="s">
-        <v>309</v>
-      </c>
       <c r="G87">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="H87" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J87">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K87">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L87">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="M87">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="P87">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>309</v>
+      </c>
+      <c r="B88" t="s">
         <v>310</v>
       </c>
-      <c r="B88" t="s">
-        <v>283</v>
-      </c>
       <c r="C88" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F88" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G88">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="H88" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I88" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88">
         <v>45</v>
       </c>
-      <c r="J88">
-        <v>76</v>
-      </c>
       <c r="K88">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L88">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="M88">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O88">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P88">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C89" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F89" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G89">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="H89" t="s">
+        <v>35</v>
+      </c>
+      <c r="I89" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89">
+        <v>73</v>
+      </c>
+      <c r="K89">
+        <v>87</v>
+      </c>
+      <c r="L89">
+        <v>70</v>
+      </c>
+      <c r="M89">
+        <v>6</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
         <v>28</v>
-      </c>
-      <c r="I89" t="s">
-        <v>23</v>
-      </c>
-      <c r="J89">
-        <v>45</v>
-      </c>
-      <c r="K89">
-        <v>67</v>
-      </c>
-      <c r="L89">
-        <v>90</v>
-      </c>
-      <c r="M89">
-        <v>9</v>
-      </c>
-      <c r="N89">
-        <v>11</v>
-      </c>
-      <c r="O89">
-        <v>10</v>
       </c>
       <c r="P89">
         <v>5</v>
@@ -6144,190 +6144,190 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B90" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C90" t="s">
+        <v>316</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>317</v>
+      </c>
+      <c r="F90" t="s">
         <v>320</v>
       </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>321</v>
-      </c>
-      <c r="F90" t="s">
-        <v>322</v>
-      </c>
       <c r="G90">
-        <v>144</v>
-      </c>
-      <c r="H90" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="I90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J90">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K90">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="L90">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="M90">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
       <c r="O90">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="P90">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>321</v>
+      </c>
+      <c r="B91" t="s">
+        <v>315</v>
+      </c>
+      <c r="C91" t="s">
+        <v>322</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" t="s">
         <v>323</v>
       </c>
-      <c r="B91" t="s">
-        <v>319</v>
-      </c>
-      <c r="C91" t="s">
-        <v>320</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
-        <v>321</v>
-      </c>
-      <c r="F91" t="s">
-        <v>324</v>
-      </c>
       <c r="G91">
-        <v>145</v>
+        <v>109</v>
+      </c>
+      <c r="H91" t="s">
+        <v>35</v>
       </c>
       <c r="I91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J91">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K91">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L91">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="M91">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
       <c r="O91">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P91">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>324</v>
+      </c>
+      <c r="B92" t="s">
+        <v>315</v>
+      </c>
+      <c r="C92" t="s">
+        <v>322</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
         <v>325</v>
       </c>
-      <c r="B92" t="s">
-        <v>319</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="F92" t="s">
         <v>326</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>60</v>
-      </c>
-      <c r="F92" t="s">
-        <v>327</v>
-      </c>
       <c r="G92">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="H92" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="I92" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J92">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K92">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="L92">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="N92">
         <v>0</v>
       </c>
       <c r="O92">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P92">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93" t="s">
         <v>328</v>
       </c>
-      <c r="B93" t="s">
-        <v>319</v>
-      </c>
       <c r="C93" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F93" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G93">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="H93" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="I93" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J93">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="K93">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="L93">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M93">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -6336,57 +6336,57 @@
         <v>11</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B94" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C94" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>334</v>
+        <v>94</v>
       </c>
       <c r="F94" t="s">
         <v>335</v>
       </c>
       <c r="G94">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="H94" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I94" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J94">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K94">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L94">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M94">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P94">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -6394,96 +6394,96 @@
         <v>336</v>
       </c>
       <c r="B95" t="s">
+        <v>333</v>
+      </c>
+      <c r="C95" t="s">
+        <v>334</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>94</v>
+      </c>
+      <c r="F95" t="s">
         <v>337</v>
       </c>
-      <c r="C95" t="s">
-        <v>338</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95" t="s">
-        <v>97</v>
-      </c>
-      <c r="F95" t="s">
-        <v>339</v>
-      </c>
       <c r="G95">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H95" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I95" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J95">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K95">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L95">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="M95">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
       <c r="O95">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="P95">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B96" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C96" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F96" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G96">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="H96" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="I96" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J96">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K96">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="L96">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M96">
+        <v>7</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
         <v>14</v>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <v>6</v>
       </c>
       <c r="P96">
         <v>5</v>
@@ -6491,113 +6491,113 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B97" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C97" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F97" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G97">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="H97" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I97" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J97">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K97">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="L97">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="M97">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N97">
         <v>0</v>
       </c>
       <c r="O97">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P97">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>342</v>
+      </c>
+      <c r="B98" t="s">
+        <v>333</v>
+      </c>
+      <c r="C98" t="s">
+        <v>89</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>343</v>
+      </c>
+      <c r="F98" t="s">
         <v>344</v>
       </c>
-      <c r="B98" t="s">
-        <v>337</v>
-      </c>
-      <c r="C98" t="s">
-        <v>338</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98" t="s">
-        <v>97</v>
-      </c>
-      <c r="F98" t="s">
-        <v>345</v>
-      </c>
       <c r="G98">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="H98" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="I98" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J98">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="K98">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="L98">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M98">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
       <c r="O98">
+        <v>14</v>
+      </c>
+      <c r="P98">
         <v>12</v>
-      </c>
-      <c r="P98">
-        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>345</v>
+      </c>
+      <c r="B99" t="s">
+        <v>333</v>
+      </c>
+      <c r="C99" t="s">
         <v>346</v>
-      </c>
-      <c r="B99" t="s">
-        <v>337</v>
-      </c>
-      <c r="C99" t="s">
-        <v>92</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -6609,34 +6609,31 @@
         <v>348</v>
       </c>
       <c r="G99">
-        <v>180</v>
-      </c>
-      <c r="H99" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="I99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J99">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="K99">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="L99">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="M99">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
       <c r="O99">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P99">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -6644,190 +6641,190 @@
         <v>349</v>
       </c>
       <c r="B100" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C100" t="s">
+        <v>346</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>347</v>
+      </c>
+      <c r="F100" t="s">
         <v>350</v>
       </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100" t="s">
-        <v>351</v>
-      </c>
-      <c r="F100" t="s">
-        <v>352</v>
-      </c>
       <c r="G100">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="H100" t="s">
+        <v>128</v>
       </c>
       <c r="I100" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J100">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K100">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L100">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M100">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N100">
         <v>0</v>
       </c>
       <c r="O100">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="P100">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B101" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C101" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>351</v>
+        <v>94</v>
       </c>
       <c r="F101" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G101">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="I101" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J101">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="K101">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="L101">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M101">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N101">
         <v>0</v>
       </c>
       <c r="O101">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P101">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B102" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C102" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F102" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G102">
-        <v>78</v>
-      </c>
-      <c r="H102" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="I102" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J102">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="K102">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L102">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="M102">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
       <c r="O102">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P102">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B103" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C103" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F103" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G103">
+        <v>142</v>
+      </c>
+      <c r="I103" t="s">
+        <v>22</v>
+      </c>
+      <c r="J103">
+        <v>87</v>
+      </c>
+      <c r="K103">
         <v>93</v>
       </c>
-      <c r="I103" t="s">
-        <v>45</v>
-      </c>
-      <c r="J103">
-        <v>79</v>
-      </c>
-      <c r="K103">
-        <v>22</v>
-      </c>
       <c r="L103">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M103">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N103">
         <v>0</v>
       </c>
       <c r="O103">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P103">
         <v>5</v>
@@ -6835,46 +6832,49 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B104" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C104" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F104" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G104">
-        <v>142</v>
+        <v>85</v>
+      </c>
+      <c r="H104" t="s">
+        <v>74</v>
       </c>
       <c r="I104" t="s">
+        <v>22</v>
+      </c>
+      <c r="J104">
+        <v>71</v>
+      </c>
+      <c r="K104">
+        <v>43</v>
+      </c>
+      <c r="L104">
+        <v>65</v>
+      </c>
+      <c r="M104">
         <v>23</v>
       </c>
-      <c r="J104">
-        <v>87</v>
-      </c>
-      <c r="K104">
-        <v>93</v>
-      </c>
-      <c r="L104">
-        <v>59</v>
-      </c>
-      <c r="M104">
-        <v>28</v>
-      </c>
       <c r="N104">
         <v>0</v>
       </c>
       <c r="O104">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P104">
         <v>5</v>
@@ -6882,49 +6882,49 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B105" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C105" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F105" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G105">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="H105" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="I105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J105">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K105">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L105">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M105">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N105">
         <v>0</v>
       </c>
       <c r="O105">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="P105">
         <v>5</v>
@@ -6932,360 +6932,360 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B106" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C106" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F106" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G106">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="I106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J106">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K106">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="L106">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M106">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N106">
         <v>0</v>
       </c>
       <c r="O106">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P106">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B107" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F107" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G107">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="H107" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I107" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J107">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K107">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L107">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M107">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N107">
         <v>0</v>
       </c>
       <c r="O107">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="P107">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B108" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C108" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F108" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G108">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="H108" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I108" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J108">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="K108">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="L108">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M108">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="N108">
         <v>0</v>
       </c>
       <c r="O108">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="P108">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>367</v>
+      </c>
+      <c r="B109" t="s">
+        <v>333</v>
+      </c>
+      <c r="C109" t="s">
+        <v>334</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" t="s">
+        <v>368</v>
+      </c>
+      <c r="G109">
+        <v>105</v>
+      </c>
+      <c r="H109" t="s">
+        <v>45</v>
+      </c>
+      <c r="I109" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109">
+        <v>81</v>
+      </c>
+      <c r="K109">
+        <v>77</v>
+      </c>
+      <c r="L109">
+        <v>79</v>
+      </c>
+      <c r="M109">
+        <v>19</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>47</v>
+      </c>
+      <c r="P109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B109" t="s">
-        <v>337</v>
-      </c>
-      <c r="C109" t="s">
-        <v>338</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109" t="s">
-        <v>97</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="B110" t="s">
+        <v>333</v>
+      </c>
+      <c r="C110" t="s">
+        <v>334</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>94</v>
+      </c>
+      <c r="F110" t="s">
         <v>370</v>
       </c>
-      <c r="G109">
-        <v>188</v>
-      </c>
-      <c r="H109" t="s">
-        <v>37</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="G110">
+        <v>118</v>
+      </c>
+      <c r="H110" t="s">
         <v>45</v>
       </c>
-      <c r="J109">
-        <v>50</v>
-      </c>
-      <c r="K109">
-        <v>41</v>
-      </c>
-      <c r="L109">
-        <v>50</v>
-      </c>
-      <c r="M109">
-        <v>69</v>
-      </c>
-      <c r="N109">
-        <v>0</v>
-      </c>
-      <c r="O109">
+      <c r="I110" t="s">
+        <v>22</v>
+      </c>
+      <c r="J110">
+        <v>63</v>
+      </c>
+      <c r="K110">
+        <v>60</v>
+      </c>
+      <c r="L110">
+        <v>70</v>
+      </c>
+      <c r="M110">
+        <v>5</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>9</v>
+      </c>
+      <c r="P110">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>371</v>
+      </c>
+      <c r="B111" t="s">
+        <v>333</v>
+      </c>
+      <c r="C111" t="s">
+        <v>334</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>94</v>
+      </c>
+      <c r="F111" t="s">
+        <v>372</v>
+      </c>
+      <c r="G111">
+        <v>115</v>
+      </c>
+      <c r="H111" t="s">
+        <v>128</v>
+      </c>
+      <c r="I111" t="s">
+        <v>42</v>
+      </c>
+      <c r="J111">
+        <v>85</v>
+      </c>
+      <c r="K111">
+        <v>72</v>
+      </c>
+      <c r="L111">
+        <v>58</v>
+      </c>
+      <c r="M111">
+        <v>9</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>49</v>
+      </c>
+      <c r="P111">
         <v>12</v>
-      </c>
-      <c r="P109">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>371</v>
-      </c>
-      <c r="B110" t="s">
-        <v>337</v>
-      </c>
-      <c r="C110" t="s">
-        <v>338</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110" t="s">
-        <v>97</v>
-      </c>
-      <c r="F110" t="s">
-        <v>372</v>
-      </c>
-      <c r="G110">
-        <v>105</v>
-      </c>
-      <c r="H110" t="s">
-        <v>48</v>
-      </c>
-      <c r="I110" t="s">
-        <v>23</v>
-      </c>
-      <c r="J110">
-        <v>81</v>
-      </c>
-      <c r="K110">
-        <v>77</v>
-      </c>
-      <c r="L110">
-        <v>79</v>
-      </c>
-      <c r="M110">
-        <v>19</v>
-      </c>
-      <c r="N110">
-        <v>0</v>
-      </c>
-      <c r="O110">
-        <v>47</v>
-      </c>
-      <c r="P110">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B111" t="s">
-        <v>337</v>
-      </c>
-      <c r="C111" t="s">
-        <v>338</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-      <c r="E111" t="s">
-        <v>97</v>
-      </c>
-      <c r="F111" t="s">
-        <v>374</v>
-      </c>
-      <c r="G111">
-        <v>118</v>
-      </c>
-      <c r="H111" t="s">
-        <v>48</v>
-      </c>
-      <c r="I111" t="s">
-        <v>23</v>
-      </c>
-      <c r="J111">
-        <v>63</v>
-      </c>
-      <c r="K111">
-        <v>60</v>
-      </c>
-      <c r="L111">
-        <v>70</v>
-      </c>
-      <c r="M111">
-        <v>5</v>
-      </c>
-      <c r="N111">
-        <v>0</v>
-      </c>
-      <c r="O111">
-        <v>9</v>
-      </c>
-      <c r="P111">
-        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>373</v>
+      </c>
+      <c r="B112" t="s">
+        <v>374</v>
+      </c>
+      <c r="C112" t="s">
         <v>375</v>
       </c>
-      <c r="B112" t="s">
-        <v>337</v>
-      </c>
-      <c r="C112" t="s">
-        <v>338</v>
-      </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>97</v>
+        <v>376</v>
       </c>
       <c r="F112" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G112">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="H112" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="I112" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J112">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="K112">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="L112">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M112">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N112">
         <v>0</v>
       </c>
       <c r="O112">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="P112">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B113" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C113" t="s">
         <v>379</v>
@@ -7300,34 +7300,34 @@
         <v>381</v>
       </c>
       <c r="G113">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="H113" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I113" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J113">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K113">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="L113">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="M113">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N113">
         <v>0</v>
       </c>
       <c r="O113">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P113">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -7335,340 +7335,340 @@
         <v>382</v>
       </c>
       <c r="B114" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C114" t="s">
+        <v>379</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
         <v>383</v>
       </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>384</v>
       </c>
-      <c r="F114" t="s">
-        <v>385</v>
-      </c>
       <c r="G114">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="H114" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I114" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J114">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K114">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="L114">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="M114">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="N114">
         <v>0</v>
       </c>
       <c r="O114">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P114">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>385</v>
+      </c>
+      <c r="B115" t="s">
+        <v>374</v>
+      </c>
+      <c r="C115" t="s">
+        <v>379</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
         <v>386</v>
       </c>
-      <c r="B115" t="s">
-        <v>378</v>
-      </c>
-      <c r="C115" t="s">
-        <v>383</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>387</v>
       </c>
-      <c r="F115" t="s">
-        <v>388</v>
-      </c>
       <c r="G115">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="H115" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J115">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="K115">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L115">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M115">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N115">
         <v>0</v>
       </c>
       <c r="O115">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="P115">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>388</v>
+      </c>
+      <c r="B116" t="s">
+        <v>374</v>
+      </c>
+      <c r="C116" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
         <v>389</v>
       </c>
-      <c r="B116" t="s">
-        <v>378</v>
-      </c>
-      <c r="C116" t="s">
-        <v>383</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>390</v>
       </c>
-      <c r="F116" t="s">
-        <v>391</v>
-      </c>
       <c r="G116">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H116" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J116">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K116">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="L116">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M116">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="N116">
         <v>0</v>
       </c>
       <c r="O116">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="P116">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>391</v>
+      </c>
+      <c r="B117" t="s">
+        <v>374</v>
+      </c>
+      <c r="C117" t="s">
+        <v>379</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>389</v>
+      </c>
+      <c r="F117" t="s">
         <v>392</v>
       </c>
-      <c r="B117" t="s">
-        <v>378</v>
-      </c>
-      <c r="C117" t="s">
-        <v>383</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117" t="s">
-        <v>393</v>
-      </c>
-      <c r="F117" t="s">
-        <v>394</v>
-      </c>
       <c r="G117">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H117" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J117">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K117">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L117">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M117">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N117">
         <v>0</v>
       </c>
       <c r="O117">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="P117">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B118" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C118" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F118" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G118">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H118" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="I118" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J118">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K118">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="L118">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M118">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="N118">
         <v>0</v>
       </c>
       <c r="O118">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="P118">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>422</v>
+      </c>
+      <c r="B119" t="s">
+        <v>395</v>
+      </c>
+      <c r="C119" t="s">
+        <v>396</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>264</v>
+      </c>
+      <c r="F119" t="s">
         <v>397</v>
       </c>
-      <c r="B119" t="s">
-        <v>378</v>
-      </c>
-      <c r="C119" t="s">
-        <v>383</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119" t="s">
-        <v>393</v>
-      </c>
-      <c r="F119" t="s">
-        <v>398</v>
-      </c>
       <c r="G119">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="H119" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I119" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J119">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="K119">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="L119">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M119">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="N119">
         <v>0</v>
       </c>
       <c r="O119">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P119">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>398</v>
+      </c>
+      <c r="B120" t="s">
+        <v>395</v>
+      </c>
+      <c r="C120" t="s">
         <v>399</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
         <v>400</v>
       </c>
-      <c r="C120" t="s">
+      <c r="F120" t="s">
         <v>401</v>
       </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120" t="s">
-        <v>268</v>
-      </c>
-      <c r="F120" t="s">
-        <v>402</v>
-      </c>
       <c r="G120">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H120" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I120" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J120">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K120">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L120">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="M120">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -7677,65 +7677,65 @@
         <v>11</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>402</v>
+      </c>
+      <c r="B121" t="s">
+        <v>395</v>
+      </c>
+      <c r="C121" t="s">
         <v>403</v>
       </c>
-      <c r="B121" t="s">
-        <v>400</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
         <v>404</v>
       </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>405</v>
       </c>
-      <c r="F121" t="s">
-        <v>406</v>
-      </c>
       <c r="G121">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="H121" t="s">
+        <v>128</v>
+      </c>
+      <c r="I121" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121">
         <v>37</v>
       </c>
-      <c r="I121" t="s">
-        <v>23</v>
-      </c>
-      <c r="J121">
-        <v>56</v>
-      </c>
       <c r="K121">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L121">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M121">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O121">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P121">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>406</v>
+      </c>
+      <c r="B122" t="s">
         <v>407</v>
-      </c>
-      <c r="B122" t="s">
-        <v>400</v>
       </c>
       <c r="C122" t="s">
         <v>408</v>
@@ -7750,34 +7750,34 @@
         <v>410</v>
       </c>
       <c r="G122">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H122" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="I122" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J122">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="K122">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="L122">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="M122">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>33</v>
+      </c>
+      <c r="P122">
         <v>5</v>
-      </c>
-      <c r="O122">
-        <v>10</v>
-      </c>
-      <c r="P122">
-        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -7785,153 +7785,103 @@
         <v>411</v>
       </c>
       <c r="B123" t="s">
+        <v>407</v>
+      </c>
+      <c r="C123" t="s">
         <v>412</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
         <v>413</v>
       </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>414</v>
       </c>
-      <c r="F123" t="s">
-        <v>415</v>
-      </c>
       <c r="G123">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="H123" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I123" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J123">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K123">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L123">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N123">
         <v>0</v>
       </c>
       <c r="O123">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="P123">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>415</v>
+      </c>
+      <c r="B124" t="s">
+        <v>407</v>
+      </c>
+      <c r="C124" t="s">
+        <v>412</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
         <v>416</v>
       </c>
-      <c r="B124" t="s">
-        <v>412</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="F124" t="s">
         <v>417</v>
       </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124" t="s">
-        <v>418</v>
-      </c>
-      <c r="F124" t="s">
-        <v>419</v>
-      </c>
       <c r="G124">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="H124" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I124" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J124">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K124">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="L124">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
       <c r="O124">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="P124">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>420</v>
-      </c>
-      <c r="B125" t="s">
-        <v>412</v>
-      </c>
-      <c r="C125" t="s">
-        <v>417</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125" t="s">
-        <v>421</v>
-      </c>
-      <c r="F125" t="s">
-        <v>422</v>
-      </c>
-      <c r="G125">
-        <v>103</v>
-      </c>
-      <c r="H125" t="s">
-        <v>28</v>
-      </c>
-      <c r="I125" t="s">
-        <v>45</v>
-      </c>
-      <c r="J125">
-        <v>69</v>
-      </c>
-      <c r="K125">
-        <v>90</v>
-      </c>
-      <c r="L125">
-        <v>88</v>
-      </c>
-      <c r="M125">
-        <v>5</v>
-      </c>
-      <c r="N125">
-        <v>0</v>
-      </c>
-      <c r="O125">
-        <v>29</v>
-      </c>
-      <c r="P125">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q33" xr:uid="{F25C7F37-D0E2-4C22-81A2-8FB61F026E91}"/>
+  <autoFilter ref="A1:Q124" xr:uid="{F25C7F37-D0E2-4C22-81A2-8FB61F026E91}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
